--- a/daysales.xlsx
+++ b/daysales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakesh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{473D6754-CC13-463E-B3C7-25B9C0A07298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDEBD9-0708-437C-999B-EEA3EB76D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="3636" windowWidth="11748" windowHeight="10224" xr2:uid="{F0C86FEF-791C-4C7D-BED0-F2C860749A2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0C86FEF-791C-4C7D-BED0-F2C860749A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/daysales.xlsx
+++ b/daysales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakesh\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDEBD9-0708-437C-999B-EEA3EB76D32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45F3480-437D-41DA-B15C-A57AE6A56B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0C86FEF-791C-4C7D-BED0-F2C860749A2C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>day</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A03237F-F90F-4564-8C8A-B6E91C8B0283}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,6 +483,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
